--- a/natmiOut/OldD2/LR-pairs_lrc2p/C1qb-Lrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/C1qb-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>C1qb</t>
   </si>
   <si>
     <t>Lrp1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>277.208326096904</v>
+        <v>1.888806</v>
       </c>
       <c r="H2">
-        <v>277.208326096904</v>
+        <v>3.777612</v>
       </c>
       <c r="I2">
-        <v>0.3627366098650966</v>
+        <v>0.002232911865451325</v>
       </c>
       <c r="J2">
-        <v>0.3627366098650966</v>
+        <v>0.001489716712341933</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N2">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O2">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P2">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q2">
-        <v>507.0960566781731</v>
+        <v>3.813586199076</v>
       </c>
       <c r="R2">
-        <v>507.0960566781731</v>
+        <v>15.254344796304</v>
       </c>
       <c r="S2">
-        <v>0.001348105745158673</v>
+        <v>8.876613614538044E-06</v>
       </c>
       <c r="T2">
-        <v>0.001348105745158673</v>
+        <v>4.032748854072112E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>277.208326096904</v>
+        <v>1.888806</v>
       </c>
       <c r="H3">
-        <v>277.208326096904</v>
+        <v>3.777612</v>
       </c>
       <c r="I3">
-        <v>0.3627366098650966</v>
+        <v>0.002232911865451325</v>
       </c>
       <c r="J3">
-        <v>0.3627366098650966</v>
+        <v>0.001489716712341933</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N3">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P3">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q3">
-        <v>36456.10240861324</v>
+        <v>263.8564078888999</v>
       </c>
       <c r="R3">
-        <v>36456.10240861324</v>
+        <v>1583.1384473334</v>
       </c>
       <c r="S3">
-        <v>0.09691789248981525</v>
+        <v>0.0006141598118634886</v>
       </c>
       <c r="T3">
-        <v>0.09691789248981525</v>
+        <v>0.0004185299234135679</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>277.208326096904</v>
+        <v>1.888806</v>
       </c>
       <c r="H4">
-        <v>277.208326096904</v>
+        <v>3.777612</v>
       </c>
       <c r="I4">
-        <v>0.3627366098650966</v>
+        <v>0.002232911865451325</v>
       </c>
       <c r="J4">
-        <v>0.3627366098650966</v>
+        <v>0.001489716712341933</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N4">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O4">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P4">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q4">
-        <v>51069.13601821008</v>
+        <v>351.988165734722</v>
       </c>
       <c r="R4">
-        <v>51069.13601821008</v>
+        <v>2111.928994408332</v>
       </c>
       <c r="S4">
-        <v>0.1357663794852422</v>
+        <v>0.000819297842244693</v>
       </c>
       <c r="T4">
-        <v>0.1357663794852422</v>
+        <v>0.0005583248147206846</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>277.208326096904</v>
+        <v>1.888806</v>
       </c>
       <c r="H5">
-        <v>277.208326096904</v>
+        <v>3.777612</v>
       </c>
       <c r="I5">
-        <v>0.3627366098650966</v>
+        <v>0.002232911865451325</v>
       </c>
       <c r="J5">
-        <v>0.3627366098650966</v>
+        <v>0.001489716712341933</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N5">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O5">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P5">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q5">
-        <v>38732.73638344698</v>
+        <v>271.242362131996</v>
       </c>
       <c r="R5">
-        <v>38732.73638344698</v>
+        <v>1627.454172791976</v>
       </c>
       <c r="S5">
-        <v>0.1029702829603738</v>
+        <v>0.0006313515727332197</v>
       </c>
       <c r="T5">
-        <v>0.1029702829603738</v>
+        <v>0.0004302455489253072</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>277.208326096904</v>
+        <v>1.888806</v>
       </c>
       <c r="H6">
-        <v>277.208326096904</v>
+        <v>3.777612</v>
       </c>
       <c r="I6">
-        <v>0.3627366098650966</v>
+        <v>0.002232911865451325</v>
       </c>
       <c r="J6">
-        <v>0.3627366098650966</v>
+        <v>0.001489716712341933</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N6">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O6">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P6">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q6">
-        <v>1374.603352461187</v>
+        <v>11.812055043892</v>
       </c>
       <c r="R6">
-        <v>1374.603352461187</v>
+        <v>70.87233026335201</v>
       </c>
       <c r="S6">
-        <v>0.003654358286488056</v>
+        <v>2.749408119939417E-05</v>
       </c>
       <c r="T6">
-        <v>0.003654358286488056</v>
+        <v>1.873632151832589E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -850,49 +850,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>277.208326096904</v>
+        <v>1.888806</v>
       </c>
       <c r="H7">
-        <v>277.208326096904</v>
+        <v>3.777612</v>
       </c>
       <c r="I7">
-        <v>0.3627366098650966</v>
+        <v>0.002232911865451325</v>
       </c>
       <c r="J7">
-        <v>0.3627366098650966</v>
+        <v>0.001489716712341933</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N7">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O7">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P7">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q7">
-        <v>8305.337706379063</v>
+        <v>56.594907095547</v>
       </c>
       <c r="R7">
-        <v>8305.337706379063</v>
+        <v>226.379628382188</v>
       </c>
       <c r="S7">
-        <v>0.02207959089801871</v>
+        <v>0.0001317319437959914</v>
       </c>
       <c r="T7">
-        <v>0.02207959089801871</v>
+        <v>5.984735490997522E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>487.005482374204</v>
+        <v>330.351781</v>
       </c>
       <c r="H8">
-        <v>487.005482374204</v>
+        <v>991.055343</v>
       </c>
       <c r="I8">
-        <v>0.6372633901349034</v>
+        <v>0.3905358261080691</v>
       </c>
       <c r="J8">
-        <v>0.6372633901349034</v>
+        <v>0.3908267199815298</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N8">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O8">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P8">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q8">
-        <v>890.8771362310409</v>
+        <v>666.995442020926</v>
       </c>
       <c r="R8">
-        <v>890.8771362310409</v>
+        <v>4001.972652125556</v>
       </c>
       <c r="S8">
-        <v>0.00236838084178947</v>
+        <v>0.001552517895861984</v>
       </c>
       <c r="T8">
-        <v>0.00236838084178947</v>
+        <v>0.001057990417969155</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>487.005482374204</v>
+        <v>330.351781</v>
       </c>
       <c r="H9">
-        <v>487.005482374204</v>
+        <v>991.055343</v>
       </c>
       <c r="I9">
-        <v>0.6372633901349034</v>
+        <v>0.3905358261080691</v>
       </c>
       <c r="J9">
-        <v>0.6372633901349034</v>
+        <v>0.3908267199815298</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N9">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P9">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q9">
-        <v>64046.85598362466</v>
+        <v>46148.43148230181</v>
       </c>
       <c r="R9">
-        <v>64046.85598362466</v>
+        <v>415335.8833407163</v>
       </c>
       <c r="S9">
-        <v>0.1702674145732337</v>
+        <v>0.1074164248036741</v>
       </c>
       <c r="T9">
-        <v>0.1702674145732337</v>
+        <v>0.1098011963124845</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>487.005482374204</v>
+        <v>330.351781</v>
       </c>
       <c r="H10">
-        <v>487.005482374204</v>
+        <v>991.055343</v>
       </c>
       <c r="I10">
-        <v>0.6372633901349034</v>
+        <v>0.3905358261080691</v>
       </c>
       <c r="J10">
-        <v>0.6372633901349034</v>
+        <v>0.3908267199815298</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N10">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O10">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P10">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q10">
-        <v>89719.34418841399</v>
+        <v>61562.65780677772</v>
       </c>
       <c r="R10">
-        <v>89719.34418841399</v>
+        <v>554063.9202609995</v>
       </c>
       <c r="S10">
-        <v>0.2385172626752067</v>
+        <v>0.1432950241342898</v>
       </c>
       <c r="T10">
-        <v>0.2385172626752067</v>
+        <v>0.146476342927336</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>487.005482374204</v>
+        <v>330.351781</v>
       </c>
       <c r="H11">
-        <v>487.005482374204</v>
+        <v>991.055343</v>
       </c>
       <c r="I11">
-        <v>0.6372633901349034</v>
+        <v>0.3905358261080691</v>
       </c>
       <c r="J11">
-        <v>0.6372633901349034</v>
+        <v>0.3908267199815298</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N11">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O11">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P11">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q11">
-        <v>68046.49496530455</v>
+        <v>47440.23336062668</v>
       </c>
       <c r="R11">
-        <v>68046.49496530455</v>
+        <v>426962.1002456401</v>
       </c>
       <c r="S11">
-        <v>0.1809003828614988</v>
+        <v>0.1104232602446044</v>
       </c>
       <c r="T11">
-        <v>0.1809003828614988</v>
+        <v>0.1128747870518184</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>487.005482374204</v>
+        <v>330.351781</v>
       </c>
       <c r="H12">
-        <v>487.005482374204</v>
+        <v>991.055343</v>
       </c>
       <c r="I12">
-        <v>0.6372633901349034</v>
+        <v>0.3905358261080691</v>
       </c>
       <c r="J12">
-        <v>0.6372633901349034</v>
+        <v>0.3908267199815298</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N12">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O12">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P12">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q12">
-        <v>2414.932401794244</v>
+        <v>2065.925998233676</v>
       </c>
       <c r="R12">
-        <v>2414.932401794244</v>
+        <v>18593.33398410308</v>
       </c>
       <c r="S12">
-        <v>0.006420054350954656</v>
+        <v>0.00480870914809593</v>
       </c>
       <c r="T12">
-        <v>0.006420054350954656</v>
+        <v>0.004915468171136353</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,805 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>487.005482374204</v>
+        <v>330.351781</v>
       </c>
       <c r="H13">
-        <v>487.005482374204</v>
+        <v>991.055343</v>
       </c>
       <c r="I13">
-        <v>0.6372633901349034</v>
+        <v>0.3905358261080691</v>
       </c>
       <c r="J13">
-        <v>0.6372633901349034</v>
+        <v>0.3908267199815298</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N13">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O13">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P13">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q13">
-        <v>14590.9939031264</v>
+        <v>9898.437613255936</v>
       </c>
       <c r="R13">
-        <v>14590.9939031264</v>
+        <v>59390.6256795356</v>
       </c>
       <c r="S13">
-        <v>0.03878989483222013</v>
+        <v>0.02303988988154298</v>
       </c>
       <c r="T13">
-        <v>0.03878989483222013</v>
+        <v>0.01570093510078542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>509.9489336666666</v>
+      </c>
+      <c r="H14">
+        <v>1529.846801</v>
+      </c>
+      <c r="I14">
+        <v>0.6028522912138941</v>
+      </c>
+      <c r="J14">
+        <v>0.6033013307805416</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.019046</v>
+      </c>
+      <c r="N14">
+        <v>4.038092</v>
+      </c>
+      <c r="O14">
+        <v>0.003975353327590414</v>
+      </c>
+      <c r="P14">
+        <v>0.002707057536954368</v>
+      </c>
+      <c r="Q14">
+        <v>1029.610354723949</v>
+      </c>
+      <c r="R14">
+        <v>6177.662128343692</v>
+      </c>
+      <c r="S14">
+        <v>0.002396550861922659</v>
+      </c>
+      <c r="T14">
+        <v>0.001633171414544066</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>509.9489336666666</v>
+      </c>
+      <c r="H15">
+        <v>1529.846801</v>
+      </c>
+      <c r="I15">
+        <v>0.6028522912138941</v>
+      </c>
+      <c r="J15">
+        <v>0.6033013307805416</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>139.6948166666666</v>
+      </c>
+      <c r="N15">
+        <v>419.0844499999999</v>
+      </c>
+      <c r="O15">
+        <v>0.2750488370661026</v>
+      </c>
+      <c r="P15">
+        <v>0.2809459811695414</v>
+      </c>
+      <c r="Q15">
+        <v>71237.22279792714</v>
+      </c>
+      <c r="R15">
+        <v>641135.0051813443</v>
+      </c>
+      <c r="S15">
+        <v>0.165813821621017</v>
+      </c>
+      <c r="T15">
+        <v>0.1694950843170293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>509.9489336666666</v>
+      </c>
+      <c r="H16">
+        <v>1529.846801</v>
+      </c>
+      <c r="I16">
+        <v>0.6028522912138941</v>
+      </c>
+      <c r="J16">
+        <v>0.6033013307805416</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>186.3548536666667</v>
+      </c>
+      <c r="N16">
+        <v>559.064561</v>
+      </c>
+      <c r="O16">
+        <v>0.3669190239530987</v>
+      </c>
+      <c r="P16">
+        <v>0.3747858972750337</v>
+      </c>
+      <c r="Q16">
+        <v>95031.45891092437</v>
+      </c>
+      <c r="R16">
+        <v>855283.1301983193</v>
+      </c>
+      <c r="S16">
+        <v>0.2211979742800912</v>
+      </c>
+      <c r="T16">
+        <v>0.2261088305838072</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>509.9489336666666</v>
+      </c>
+      <c r="H17">
+        <v>1529.846801</v>
+      </c>
+      <c r="I17">
+        <v>0.6028522912138941</v>
+      </c>
+      <c r="J17">
+        <v>0.6033013307805416</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>143.6051993333333</v>
+      </c>
+      <c r="N17">
+        <v>430.815598</v>
+      </c>
+      <c r="O17">
+        <v>0.2827480934208787</v>
+      </c>
+      <c r="P17">
+        <v>0.2888103122968479</v>
+      </c>
+      <c r="Q17">
+        <v>73231.31826902243</v>
+      </c>
+      <c r="R17">
+        <v>659081.864421202</v>
+      </c>
+      <c r="S17">
+        <v>0.1704553359551369</v>
+      </c>
+      <c r="T17">
+        <v>0.1742396457518322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>509.9489336666666</v>
+      </c>
+      <c r="H18">
+        <v>1529.846801</v>
+      </c>
+      <c r="I18">
+        <v>0.6028522912138941</v>
+      </c>
+      <c r="J18">
+        <v>0.6033013307805416</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.253715333333335</v>
+      </c>
+      <c r="N18">
+        <v>18.761146</v>
+      </c>
+      <c r="O18">
+        <v>0.01231310631861279</v>
+      </c>
+      <c r="P18">
+        <v>0.0125771036621259</v>
+      </c>
+      <c r="Q18">
+        <v>3189.075465688217</v>
+      </c>
+      <c r="R18">
+        <v>28701.67919119395</v>
+      </c>
+      <c r="S18">
+        <v>0.007422984356135994</v>
+      </c>
+      <c r="T18">
+        <v>0.007587783376725381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>509.9489336666666</v>
+      </c>
+      <c r="H19">
+        <v>1529.846801</v>
+      </c>
+      <c r="I19">
+        <v>0.6028522912138941</v>
+      </c>
+      <c r="J19">
+        <v>0.6033013307805416</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>29.9633245</v>
+      </c>
+      <c r="N19">
+        <v>59.926649</v>
+      </c>
+      <c r="O19">
+        <v>0.05899558591371687</v>
+      </c>
+      <c r="P19">
+        <v>0.04017364805949665</v>
+      </c>
+      <c r="Q19">
+        <v>15279.76537788331</v>
+      </c>
+      <c r="R19">
+        <v>91678.59226729984</v>
+      </c>
+      <c r="S19">
+        <v>0.03556562413959035</v>
+      </c>
+      <c r="T19">
+        <v>0.02423681533660345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>3.704143666666667</v>
+      </c>
+      <c r="H20">
+        <v>11.112431</v>
+      </c>
+      <c r="I20">
+        <v>0.004378970812585505</v>
+      </c>
+      <c r="J20">
+        <v>0.004382232525586688</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.019046</v>
+      </c>
+      <c r="N20">
+        <v>4.038092</v>
+      </c>
+      <c r="O20">
+        <v>0.003975353327590414</v>
+      </c>
+      <c r="P20">
+        <v>0.002707057536954368</v>
+      </c>
+      <c r="Q20">
+        <v>7.478836453608666</v>
+      </c>
+      <c r="R20">
+        <v>44.873018721652</v>
+      </c>
+      <c r="S20">
+        <v>1.740795619123309E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.186295558707602E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>3.704143666666667</v>
+      </c>
+      <c r="H21">
+        <v>11.112431</v>
+      </c>
+      <c r="I21">
+        <v>0.004378970812585505</v>
+      </c>
+      <c r="J21">
+        <v>0.004382232525586688</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>139.6948166666666</v>
+      </c>
+      <c r="N21">
+        <v>419.0844499999999</v>
+      </c>
+      <c r="O21">
+        <v>0.2750488370661026</v>
+      </c>
+      <c r="P21">
+        <v>0.2809459811695414</v>
+      </c>
+      <c r="Q21">
+        <v>517.4496704219944</v>
+      </c>
+      <c r="R21">
+        <v>4657.04703379795</v>
+      </c>
+      <c r="S21">
+        <v>0.001204430829548049</v>
+      </c>
+      <c r="T21">
+        <v>0.00123117061661403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>3.704143666666667</v>
+      </c>
+      <c r="H22">
+        <v>11.112431</v>
+      </c>
+      <c r="I22">
+        <v>0.004378970812585505</v>
+      </c>
+      <c r="J22">
+        <v>0.004382232525586688</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>186.3548536666667</v>
+      </c>
+      <c r="N22">
+        <v>559.064561</v>
+      </c>
+      <c r="O22">
+        <v>0.3669190239530987</v>
+      </c>
+      <c r="P22">
+        <v>0.3747858972750337</v>
+      </c>
+      <c r="Q22">
+        <v>690.2851509619769</v>
+      </c>
+      <c r="R22">
+        <v>6212.566358657792</v>
+      </c>
+      <c r="S22">
+        <v>0.001606727696472981</v>
+      </c>
+      <c r="T22">
+        <v>0.001642398949169844</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>3.704143666666667</v>
+      </c>
+      <c r="H23">
+        <v>11.112431</v>
+      </c>
+      <c r="I23">
+        <v>0.004378970812585505</v>
+      </c>
+      <c r="J23">
+        <v>0.004382232525586688</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>143.6051993333333</v>
+      </c>
+      <c r="N23">
+        <v>430.815598</v>
+      </c>
+      <c r="O23">
+        <v>0.2827480934208787</v>
+      </c>
+      <c r="P23">
+        <v>0.2888103122968479</v>
+      </c>
+      <c r="Q23">
+        <v>531.9342896109709</v>
+      </c>
+      <c r="R23">
+        <v>4787.408606498739</v>
+      </c>
+      <c r="S23">
+        <v>0.001238145648404228</v>
+      </c>
+      <c r="T23">
+        <v>0.001265633944272096</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>3.704143666666667</v>
+      </c>
+      <c r="H24">
+        <v>11.112431</v>
+      </c>
+      <c r="I24">
+        <v>0.004378970812585505</v>
+      </c>
+      <c r="J24">
+        <v>0.004382232525586688</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.253715333333335</v>
+      </c>
+      <c r="N24">
+        <v>18.761146</v>
+      </c>
+      <c r="O24">
+        <v>0.01231310631861279</v>
+      </c>
+      <c r="P24">
+        <v>0.0125771036621259</v>
+      </c>
+      <c r="Q24">
+        <v>23.1646600451029</v>
+      </c>
+      <c r="R24">
+        <v>208.4819404059261</v>
+      </c>
+      <c r="S24">
+        <v>5.391873318146755E-05</v>
+      </c>
+      <c r="T24">
+        <v>5.511579274584358E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>3.704143666666667</v>
+      </c>
+      <c r="H25">
+        <v>11.112431</v>
+      </c>
+      <c r="I25">
+        <v>0.004378970812585505</v>
+      </c>
+      <c r="J25">
+        <v>0.004382232525586688</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>29.9633245</v>
+      </c>
+      <c r="N25">
+        <v>59.926649</v>
+      </c>
+      <c r="O25">
+        <v>0.05899558591371687</v>
+      </c>
+      <c r="P25">
+        <v>0.04017364805949665</v>
+      </c>
+      <c r="Q25">
+        <v>110.9884586789532</v>
+      </c>
+      <c r="R25">
+        <v>665.9307520737191</v>
+      </c>
+      <c r="S25">
+        <v>0.0002583399487875467</v>
+      </c>
+      <c r="T25">
+        <v>0.0001760502671977987</v>
       </c>
     </row>
   </sheetData>
